--- a/static/cache/user_info.xlsx
+++ b/static/cache/user_info.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8085E81C-E371-4205-B8B7-6A232C02DFEF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12CCB849-704E-408B-BEB5-005A79CE4E6B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,35 +30,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>党支部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>面貌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入党介绍人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>王帅鹏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>研究生对抗第一党支部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入党时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>党员</t>
+    <t>时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王帅鹏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一季度思想汇报</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -385,22 +385,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
     <col min="5" max="5" width="18.5" customWidth="1"/>
     <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -408,47 +409,41 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3120180863</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2">
-        <v>13937463312</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="D2" s="1">
         <v>43383</v>
       </c>
-      <c r="G2" t="s">
-        <v>6</v>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>